--- a/results/I3_N5_M3_T15_C100_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1389.396452796498</v>
+        <v>296.6464527964957</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.741951075243185</v>
+        <v>3.131435453589935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.741951075243185</v>
+        <v>3.131435453589935</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0700000000026</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6799999999999</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,23 +617,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -929,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -999,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1020,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1034,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1048,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,29 +1062,15 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77500000000089</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.0149999999997</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>121.8299999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.9799999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>105.775</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>117.2549999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>119.6049999999988</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>164.9050000000009</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>161.4100000000009</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>164.8650000000009</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>169.8800000000009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>168.9900000000009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000036</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>164.9050000000009</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>161.4100000000009</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>164.8650000000009</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>169.8800000000009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>168.9900000000009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>115.6100000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>113.5950000000003</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.2400000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4400000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>113.6550000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>121.8299999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>117.9799999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>105.775</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>117.2549999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>119.6049999999988</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>64.90500000000088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>61.41000000000091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>64.86500000000089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>69.88000000000088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>68.99000000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6100000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.24000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.65500000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>21.82999999999883</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>17.97999999999884</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.775000000000006</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>17.25499999999883</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>19.60499999999884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2155,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2166,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2177,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,133 +2188,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
